--- a/FacultyUpload.xlsx
+++ b/FacultyUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ExamSGP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3746C3-9FCF-497A-8635-6A23456F1CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E39604-DA27-461A-A04D-5BD8B9063B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FE088CB5-2602-4700-BB34-C6E88D28D567}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>First Name</t>
   </si>
@@ -45,25 +45,7 @@
     <t>Mehta</t>
   </si>
   <si>
-    <t>mannmehta2199@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohan </t>
-  </si>
-  <si>
-    <t>Modi</t>
-  </si>
-  <si>
-    <t>17it056@charusat.edu.in</t>
-  </si>
-  <si>
-    <t>Rekha</t>
-  </si>
-  <si>
-    <t>Karangiya</t>
-  </si>
-  <si>
-    <t>rekhakarangiya.it@charusat.ac.in</t>
+    <t>17it051@charusat.edu.in</t>
   </si>
 </sst>
 </file>
@@ -429,7 +411,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,32 +450,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
@@ -504,8 +464,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{CA7615DD-6BC8-4785-BE8E-54A73D401EAC}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{87B5D1C8-8784-4DA0-9AF0-9D74C39F09B2}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{46D7A5FA-CE0F-4275-97CE-F685086E4ACE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
